--- a/assets/Cost-IS_TemplatesBlank_V4.xlsx
+++ b/assets/Cost-IS_TemplatesBlank_V4.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n10978011\Documents\r-projects\implementation-costing-instrument\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141AAB87-DE2B-47E1-AF58-F3D26DFE5AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AF85AD-6A02-45AB-AC24-189E5E569056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="726" xr2:uid="{3ECB8846-40C6-43A7-A1C9-028CED48C876}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="726" xr2:uid="{3ECB8846-40C6-43A7-A1C9-028CED48C876}"/>
   </bookViews>
   <sheets>
-    <sheet name="case study B- Template 1" sheetId="8" r:id="rId1"/>
-    <sheet name="case study B- Template 2" sheetId="4" r:id="rId2"/>
-    <sheet name="case study B- Template 3" sheetId="16" r:id="rId3"/>
+    <sheet name="Template 1" sheetId="8" r:id="rId1"/>
+    <sheet name="Template 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Template 3" sheetId="16" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'case study B- Template 1'!$B$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Template 1'!$B$2:$D$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -740,12 +740,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1156,58 +1151,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7FAED7EF-9D76-4C71-B0A0-DC349BAA87CE}" name="Table13" displayName="Table13" ref="A2:N663" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7FAED7EF-9D76-4C71-B0A0-DC349BAA87CE}" name="Table13" displayName="Table13" ref="A2:N663" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A2:N663" xr:uid="{7FAED7EF-9D76-4C71-B0A0-DC349BAA87CE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N663">
     <sortCondition ref="B2:B663"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="17" xr3:uid="{7D558159-F418-41FD-96A7-22F649C76D13}" name="Site" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{6603F4C4-10C2-4BAC-B93E-885FF5555A47}" name="Date" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{5C145399-5110-46E9-959A-B932A82EEA97}" name="Activity" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{9DCBD257-B69E-4BCD-9CB5-64E8242B3C62}" name="Purpose" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{350F3A54-6DDE-4772-968F-017AF14BB7B5}" name="Strategy" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{A40C8A10-6CF9-4BF8-9593-2A30DDF7BD22}" name="Resource- Category" dataDxfId="16">
+    <tableColumn id="17" xr3:uid="{7D558159-F418-41FD-96A7-22F649C76D13}" name="Site" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{6603F4C4-10C2-4BAC-B93E-885FF5555A47}" name="Date" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5C145399-5110-46E9-959A-B932A82EEA97}" name="Activity" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{9DCBD257-B69E-4BCD-9CB5-64E8242B3C62}" name="Purpose" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{350F3A54-6DDE-4772-968F-017AF14BB7B5}" name="Strategy" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{A40C8A10-6CF9-4BF8-9593-2A30DDF7BD22}" name="Resource- Category" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(Table13[[#This Row],[Resource]],Table6[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6A9F470B-6016-4099-93B1-9C6FED588E84}" name="Resource" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{1BF51AA5-3713-452C-ACE9-6FF1294B4CE3}" name="Hourly wage rate" dataDxfId="14" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{6A9F470B-6016-4099-93B1-9C6FED588E84}" name="Resource" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{1BF51AA5-3713-452C-ACE9-6FF1294B4CE3}" name="Hourly wage rate" dataDxfId="13" dataCellStyle="Currency">
       <calculatedColumnFormula>VLOOKUP(Table13[[#This Row],[Resource]],Table6[#All],6,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{430F21A7-6152-4162-8D00-2ED1A34DBBA2}" name="Number of personnel involved" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{CCDB03C0-8447-4B78-9809-5DCD7D539135}" name="Time spent per person (hours)" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{5B2020B9-2A74-4E5E-8DB9-CD3773B11110}" name="Total person (hours)" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{430F21A7-6152-4162-8D00-2ED1A34DBBA2}" name="Number of personnel involved" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{CCDB03C0-8447-4B78-9809-5DCD7D539135}" name="Time spent per person (hours)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{5B2020B9-2A74-4E5E-8DB9-CD3773B11110}" name="Total person (hours)" dataDxfId="10">
       <calculatedColumnFormula>Table13[[#This Row],[Number of personnel involved]]*Table13[[#This Row],[Time spent per person (hours)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{CC213139-7846-4124-8EF1-4EC266CF0760}" name="Cost ($)" dataDxfId="10" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{CC213139-7846-4124-8EF1-4EC266CF0760}" name="Cost ($)" dataDxfId="9" dataCellStyle="Currency">
       <calculatedColumnFormula>Table13[[#This Row],[Total person (hours)]]*Table13[[#This Row],[Hourly wage rate]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BB1EFA4F-CB86-4992-A8D2-84B8FF92DB4C}" name="Labour/ Non-Labour" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{62A41631-A5A3-45F6-8B1A-A3A830B39151}" name="Data source" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{BB1EFA4F-CB86-4992-A8D2-84B8FF92DB4C}" name="Labour/ Non-Labour" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{62A41631-A5A3-45F6-8B1A-A3A830B39151}" name="Data source" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4E5EEC91-B6B4-4179-90EB-428EBC43B2CA}" name="Table6" displayName="Table6" ref="B2:J24" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4E5EEC91-B6B4-4179-90EB-428EBC43B2CA}" name="Table6" displayName="Table6" ref="B2:J24" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B2:J24" xr:uid="{4E5EEC91-B6B4-4179-90EB-428EBC43B2CA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J18">
-    <sortCondition sortBy="fontColor" ref="B2:B18" dxfId="6"/>
+    <sortCondition sortBy="fontColor" ref="B2:B18" dxfId="5"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{37CF29D5-CD4D-461A-B6AE-3CC043CCAF7E}" name="Resource- labour" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{37CF29D5-CD4D-461A-B6AE-3CC043CCAF7E}" name="Resource- labour" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{8BA04F0B-07B5-48E7-99DD-AC38C5856EEA}" name="Resource- category"/>
     <tableColumn id="2" xr3:uid="{0D119BEB-3828-4AE7-8624-21503E75DC6C}" name="Position"/>
     <tableColumn id="3" xr3:uid="{9EA4E7A8-012D-4B86-A3BF-199B4E339700}" name="Annual salary" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{94DAA80F-F6A5-4B97-B4DA-B976740A325D}" name="Hrly" dataDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{94DAA80F-F6A5-4B97-B4DA-B976740A325D}" name="Hrly" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>(Table6[[#This Row],[Annual salary]]/1725)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D29622E8-E717-418D-A5B4-DEFA7E2E9E1D}" name="Hrly +25% oncost" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{D29622E8-E717-418D-A5B4-DEFA7E2E9E1D}" name="Hrly +25% oncost" dataDxfId="2">
       <calculatedColumnFormula>Table6[[#This Row],[Hrly]]*1.25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3AC58C91-4758-499F-AA13-B7DDFB481B97}" name="Classification" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D6B7A4F5-E959-47C6-9111-7EAE31E26751}" name="Source" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3AC58C91-4758-499F-AA13-B7DDFB481B97}" name="Classification" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D6B7A4F5-E959-47C6-9111-7EAE31E26751}" name="Source" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{02703E6D-8290-4C7C-8724-DE0CE1FD9041}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1723,7 +1718,7 @@
   <dimension ref="A2:P663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20271,19 +20266,19 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{773B36FF-9625-4720-A922-499459AEBA52}">
           <x14:formula1>
-            <xm:f>'case study B- Template 1'!$B:$B</xm:f>
+            <xm:f>'Template 1'!$B:$B</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E663</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B74B99CE-565E-4056-8585-721AD36FEDAC}">
           <x14:formula1>
-            <xm:f>'case study B- Template 1'!$D:$D</xm:f>
+            <xm:f>'Template 1'!$D:$D</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G663</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BA54028-F467-4376-A32C-B2032F9F2B90}">
           <x14:formula1>
-            <xm:f>'case study B- Template 1'!$C:$C</xm:f>
+            <xm:f>'Template 1'!$C:$C</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C663</xm:sqref>
         </x14:dataValidation>
@@ -20298,7 +20293,7 @@
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20688,5 +20683,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DDA22201-E478-40DD-AAC7-A331864C2BB6}">
+          <x14:formula1>
+            <xm:f>'Template 1'!$D:$D</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>